--- a/textpoints.xlsx
+++ b/textpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpiernicki\Desktop\code\Pairing_points_algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BB45F-8703-4C20-854E-657E4EEBF133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A4E76F-3816-4F3C-A6D3-AF7B0651B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A4A5F9A4-5C1D-4C0B-9E98-2027115D1FB9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A4A5F9A4-5C1D-4C0B-9E98-2027115D1FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C07CA9A-4BDE-42AF-BBF6-3CFA68056DF5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>45</v>
+        <v>-3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -534,10 +534,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11">
         <v>8</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
